--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507348.785374216</v>
+        <v>509053.5413884827</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514382</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5572563.744829689</v>
+        <v>5572563.744829688</v>
       </c>
     </row>
     <row r="11">
@@ -665,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>59.90505408325125</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,11 +895,11 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -908,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1133,70 +1135,70 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>47.64584584692156</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="Y11" t="n">
         <v>241.0142888776591</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>152.6936123464078</v>
       </c>
     </row>
     <row r="13">
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>29.8892983910557</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1980,16 +1982,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>131.8562746194806</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2005,55 +2007,55 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,26 +2080,26 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="21">
@@ -2169,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>111.8240188281705</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>90.91642501047011</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2479,61 +2481,61 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,26 +2554,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40.61938961819902</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2688,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>35.78188170776586</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="32">
@@ -3029,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>156.7664059590756</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>150.252752286242</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>155.5825568932142</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>75.23778011704619</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>29.1427070647978</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,52 +3675,52 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>135.4132168533396</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3873,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>241.0142888776591</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>188.9257796665961</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="C3" t="n">
-        <v>816.3871559026832</v>
+        <v>387.9631634165672</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>239.028753755316</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>79.79129874986046</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>79.79129874986046</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>79.79129874986046</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4603,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>487.4018176583718</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>158.4620219229344</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>158.4620219229344</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4887,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4920,13 +4922,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4953,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>752.9257720901863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>752.9257720901863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V11" t="n">
-        <v>509.4769954460863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W11" t="n">
-        <v>266.0282188019862</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X11" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5130,40 +5132,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>566.3724067994576</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5306,22 +5308,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>933.8659450146204</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>705.6423267510095</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>470.4902185192667</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W15" t="n">
-        <v>227.0414418751666</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5619,22 +5621,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>298.4948343740486</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W18" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
         <v>19.28114311021272</v>
@@ -5701,22 +5703,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5771,28 +5773,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y20" t="n">
         <v>262.7299197543128</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.9888301348879</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>318.9674160535941</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>111.1159158480613</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5937,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6032,7 +6034,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
         <v>829.5248650203655</v>
@@ -6181,16 +6183,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>648.4405950311615</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C27" t="n">
-        <v>473.9875657500345</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0531560887832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="28">
@@ -6415,7 +6417,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>500.6814290152826</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="C30" t="n">
-        <v>500.6814290152826</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="D30" t="n">
-        <v>500.6814290152826</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="E30" t="n">
-        <v>341.4439740098271</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="F30" t="n">
-        <v>194.9094160367121</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="G30" t="n">
-        <v>56.17859061932759</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W30" t="n">
-        <v>500.6814290152826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X30" t="n">
-        <v>500.6814290152826</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y30" t="n">
-        <v>500.6814290152826</v>
+        <v>44.28007843568128</v>
       </c>
     </row>
     <row r="31">
@@ -6640,28 +6642,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564972</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6788,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>805.7072505014689</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.6974622895962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>761.6974622895962</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D35" t="n">
-        <v>761.6974622895962</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E35" t="n">
-        <v>518.2486856454962</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
         <v>31.35113235729608</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W36" t="n">
-        <v>384.2867411876791</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X36" t="n">
-        <v>176.4352409821462</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
         <v>829.5248650203655</v>
@@ -7132,13 +7134,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
         <v>20.03527576299844</v>
@@ -7260,43 +7262,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>934.6200776674061</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>934.6200776674061</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>706.3964594037951</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>471.2443511720524</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>227.7955745279523</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7366,16 +7368,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F41" t="n">
         <v>262.7299197543128</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7496,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
         <v>19.28114311021272</v>
@@ -7594,25 +7596,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>110.6980943980675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
         <v>725.4530095217538</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,19 +8300,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8778,16 +8780,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22553,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,16 +22637,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.33039015324521</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22674,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>96.87776287405225</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,22 +23102,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>64.5895983895749</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0374214579384</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y11" t="n">
         <v>145.2236497783945</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>52.98908343089656</v>
       </c>
     </row>
     <row r="13">
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>363.4633956979714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23510,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,22 +23548,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>161.9526345551508</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23789,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23859,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23868,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>100.9443125299447</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="21">
@@ -24057,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>25.5194983350401</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.7662707668343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,10 +24177,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,31 +24205,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>154.3469453318533</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,28 +24490,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>273.9090123488199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125.9137940316683</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>109.5662672500513</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,13 +24578,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24655,10 +24657,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24698,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>130.9864331150558</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>76.4535625287306</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>64.64768687920122</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24880,7 +24882,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24917,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>302.8566240687152</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>115.2702034285012</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,13 +25052,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>69.17497612189922</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>75.6886297947328</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>50.1001388840902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>97.47071887126955</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>142.54046403904</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>37.29528213497613</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25761,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>165.8617568640524</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25953,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>46.84073538823439</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>11.23894902822553</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.495285936</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
         <v>108004.437145366</v>
@@ -26323,7 +26325,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26350,7 +26352,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
         <v>8547.111069342402</v>
@@ -26430,13 +26432,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26457,7 +26459,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
     </row>
     <row r="5">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29593.37421928578</v>
+        <v>-29593.37421928579</v>
       </c>
       <c r="C6" t="n">
-        <v>51176.057312262</v>
+        <v>51176.05731226196</v>
       </c>
       <c r="D6" t="n">
         <v>51176.05731226196</v>
@@ -26531,25 +26533,25 @@
         <v>84803.65731226196</v>
       </c>
       <c r="F6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226194</v>
       </c>
       <c r="G6" t="n">
-        <v>84803.65731226194</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="H6" t="n">
-        <v>84803.65731226194</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="I6" t="n">
         <v>84803.65731226196</v>
       </c>
       <c r="J6" t="n">
-        <v>21743.71471315571</v>
+        <v>21743.71471315573</v>
       </c>
       <c r="K6" t="n">
         <v>84803.65731226199</v>
       </c>
       <c r="L6" t="n">
-        <v>84803.65731226197</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="M6" t="n">
         <v>84803.65731226194</v>
@@ -26558,10 +26560,10 @@
         <v>84803.65731226196</v>
       </c>
       <c r="O6" t="n">
-        <v>84803.65731226194</v>
+        <v>84803.657312262</v>
       </c>
       <c r="P6" t="n">
-        <v>84803.65731226193</v>
+        <v>84803.65731226196</v>
       </c>
     </row>
   </sheetData>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36838,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,7 +38107,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
